--- a/Burndown Chart 1.xlsx
+++ b/Burndown Chart 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcook\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02C20BB-BA37-49A3-8185-E07B51ECA753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBFA779-C593-40E7-8935-503C90D0D0D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{521D4AA3-748E-4D96-BCDC-CFC3D4805D0B}"/>
   </bookViews>
@@ -274,41 +274,47 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43366</c:v>
+                  <c:v>43365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43373</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43380</c:v>
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -361,42 +367,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43366</c:v>
+                  <c:v>43365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43373</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43380</c:v>
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE751CF-09FC-4243-B986-51F34CABB219}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,43 +1638,54 @@
         <v>43359</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43366</v>
+        <v>43365</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43373</v>
+        <v>43371</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43380</v>
+        <v>43377</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43383</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
